--- a/data/trans_dic/P17G_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6283441921176084</v>
+        <v>0.6324235838569118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7035921696334172</v>
+        <v>0.7002390771641163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6687650892043114</v>
+        <v>0.6742007026386941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6705426910591901</v>
+        <v>0.6723540902513829</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7433049578947084</v>
+        <v>0.7508736393126735</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6885751720583732</v>
+        <v>0.6912128414916323</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7348931187200197</v>
+        <v>0.7386452890748082</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6645825493328397</v>
+        <v>0.6638973558161489</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7168374243628309</v>
+        <v>0.7224686663955312</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7252997802757555</v>
+        <v>0.7275679994753647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7317945020514803</v>
+        <v>0.7199088187063862</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6989225087307409</v>
+        <v>0.6930742979658215</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8335522886110021</v>
+        <v>0.8331487377870194</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9001791904253688</v>
+        <v>0.9046426686279725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8494439447592853</v>
+        <v>0.8471320404790813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.837394526161494</v>
+        <v>0.834193065545762</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9088449893150394</v>
+        <v>0.9187542284829519</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8879368794740776</v>
+        <v>0.876480783738658</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8960030544694972</v>
+        <v>0.893654636340258</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7982028975569154</v>
+        <v>0.7974446314448843</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.852306966432417</v>
+        <v>0.8581793590870465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8659778708301957</v>
+        <v>0.870976726721682</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8492363939963998</v>
+        <v>0.8489526109964081</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8017032021724491</v>
+        <v>0.7979128265701662</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7980424129653446</v>
+        <v>0.7937500629402637</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6672686102765152</v>
+        <v>0.6714655771951744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7331680252580424</v>
+        <v>0.7330251818383893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7031148442254122</v>
+        <v>0.6966068933370276</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8001257242780302</v>
+        <v>0.8075026768240272</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7972589480551396</v>
+        <v>0.798599388576729</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8205886130264521</v>
+        <v>0.8245308121115701</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7104381385188568</v>
+        <v>0.7114688235262475</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8348016023813712</v>
+        <v>0.8273266035212012</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7643100095029546</v>
+        <v>0.7703595150365251</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8014352011269019</v>
+        <v>0.8039403723568097</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7265121985343179</v>
+        <v>0.7252945823908575</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9546839822609821</v>
+        <v>0.9534125824007896</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8645653883036781</v>
+        <v>0.8618183295416333</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.896784646729881</v>
+        <v>0.896350281370327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8707294701553171</v>
+        <v>0.8604979380534128</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9460294930519834</v>
+        <v>0.9416614142496452</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9553347090532894</v>
+        <v>0.957058793847942</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9469256082979132</v>
+        <v>0.9483646050794969</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8508023394200073</v>
+        <v>0.852646865223654</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.938960120186758</v>
+        <v>0.9320019486801026</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8913093250878488</v>
+        <v>0.8902231546930983</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9062421458990004</v>
+        <v>0.9078423590117533</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.83376598747499</v>
+        <v>0.8408667798883592</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9523306943064158</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.969490653372473</v>
+        <v>0.9694906533724729</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.925876837782468</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.840374826379592</v>
+        <v>0.8387939598211646</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9489787559951995</v>
+        <v>0.9494460520321398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8967404670311414</v>
+        <v>0.9046811954112114</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9161164528130075</v>
+        <v>0.9148273032797039</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8265324484382304</v>
+        <v>0.8113550588412356</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8810337679547814</v>
+        <v>0.8864425568003038</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8510507913057058</v>
+        <v>0.8530204512143329</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8347861693672153</v>
+        <v>0.8312014526288556</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8574179537803055</v>
+        <v>0.8577388029836311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9386449105293743</v>
+        <v>0.9426386684128516</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9087324014901538</v>
+        <v>0.9055809602652976</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.912000314419613</v>
+        <v>0.9119218514423364</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9491238633944395</v>
+        <v>0.9491840638538354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9939976295910729</v>
+        <v>0.9940136259493977</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9804831003428903</v>
+        <v>0.9803495754924216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9917944447780815</v>
+        <v>0.9914933462977521</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9834054665197386</v>
+        <v>0.9803238148804031</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9785013860314169</v>
+        <v>0.9783432573194508</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9843538126282242</v>
+        <v>0.9846316575988753</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9662286977237233</v>
+        <v>0.964372926834689</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.949356907587911</v>
+        <v>0.9493413777390629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9847609933396242</v>
+        <v>0.9877162757925535</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9767805684837373</v>
+        <v>0.974929495093212</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9752056340777178</v>
+        <v>0.9750849796872638</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9473206702444751</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9386799495428171</v>
+        <v>0.9386799495428173</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9303910426362195</v>
@@ -1093,7 +1093,7 @@
         <v>0.9531978638443276</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9464702536030287</v>
+        <v>0.9464702536030289</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9346758974937853</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9039077036516364</v>
+        <v>0.905862277079291</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9551827199719604</v>
+        <v>0.9540509511034838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9106187265507563</v>
+        <v>0.9103010813149356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8901643519508277</v>
+        <v>0.888325754685415</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8828413332291579</v>
+        <v>0.8870627202046567</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9727708954856675</v>
+        <v>0.9734693568187013</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9147175579217779</v>
+        <v>0.9197407457699684</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9117923498726878</v>
+        <v>0.909090374188597</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9104656381010088</v>
+        <v>0.9103082190992261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.968964195843046</v>
+        <v>0.9692182307813735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9269655216566531</v>
+        <v>0.9254548110728629</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9147353228158684</v>
+        <v>0.9163996022324263</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9623382078486017</v>
+        <v>0.9647370730093011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9906460460812577</v>
+        <v>0.9906169227169144</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9711456446027847</v>
+        <v>0.9716121427396178</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9698530293918988</v>
+        <v>0.9698185300191579</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9581831149114031</v>
+        <v>0.9595149613601119</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9759879290320653</v>
+        <v>0.975095794242383</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9692808327663471</v>
+        <v>0.9683247058858061</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9536329655006337</v>
+        <v>0.9546043873784712</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9917232785546324</v>
+        <v>0.9921364411847693</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9671369357201334</v>
+        <v>0.9671436146084573</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9617681447358672</v>
+        <v>0.9616867382040775</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9609862085552532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9916462292879954</v>
+        <v>0.9916462292879953</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9761322887295732</v>
@@ -1229,7 +1229,7 @@
         <v>0.95788270189257</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9570690974104055</v>
+        <v>0.9570690974104056</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9673202835771487</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8831324519388141</v>
+        <v>0.8749276825619154</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9548190418187076</v>
+        <v>0.9641961070870514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9213757569139426</v>
+        <v>0.9143331149523763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9587303255251194</v>
+        <v>0.9603932502383609</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9395343282062667</v>
+        <v>0.9379094575502878</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9729128462625931</v>
+        <v>0.9732312240157368</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9222367756858425</v>
+        <v>0.9246406858814813</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9302391804761801</v>
+        <v>0.9305364098374046</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9383230618538956</v>
+        <v>0.9396583777546836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9785552624518749</v>
+        <v>0.9784620877108825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.936395202780367</v>
+        <v>0.935404389800658</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.945804878644685</v>
+        <v>0.9491740600889607</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9792159685828435</v>
+        <v>0.9792650939394728</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9868387478677875</v>
+        <v>0.9867491417225375</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9919218708407946</v>
+        <v>0.9943658796525495</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9784495174853158</v>
+        <v>0.977073546372655</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.974322878761851</v>
+        <v>0.9749676330212089</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9837956756003132</v>
+        <v>0.9840847333980799</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9976121835876665</v>
+        <v>0.9976011639224726</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9751843715916262</v>
+        <v>0.9756420776467831</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9810370165959105</v>
+        <v>0.9805881209549556</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8902914259646381</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8571804204546215</v>
+        <v>0.8571804204546212</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.955044171639594</v>
@@ -1365,7 +1365,7 @@
         <v>0.9524758703429902</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9386348779615433</v>
+        <v>0.9386348779615432</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9557101800742426</v>
@@ -1377,7 +1377,7 @@
         <v>0.945776421586773</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9305626659210242</v>
+        <v>0.9305626659210239</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8100190555059568</v>
+        <v>0.8202527692329191</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6861633094746538</v>
+        <v>0.6678525886715979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7618402645142374</v>
+        <v>0.7761129546988621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3637899639132754</v>
+        <v>0.4072151836877036</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9302088101003121</v>
+        <v>0.9273663779984508</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9419710545318376</v>
+        <v>0.9440969308277752</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9151454722603236</v>
+        <v>0.9209828306385668</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9027447153243263</v>
+        <v>0.8979899527874158</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9309774322129176</v>
+        <v>0.9338621473132714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9282861278273652</v>
+        <v>0.9264643251519413</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9181969553142096</v>
+        <v>0.9163309403554977</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8803343024979549</v>
+        <v>0.8738435388167962</v>
       </c>
     </row>
     <row r="21">
@@ -1435,37 +1435,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9459004485607075</v>
+        <v>0.9450617396673676</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9569196017577203</v>
+        <v>0.957984980110189</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9735680260396022</v>
+        <v>0.9734102728488137</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9805235697020753</v>
+        <v>0.9824261652447814</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9719284091494397</v>
+        <v>0.9733988448737162</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9659692269806286</v>
+        <v>0.9650908431732919</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9733488708766567</v>
+        <v>0.973623307618609</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9738316469350476</v>
+        <v>0.9731106274585306</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9668856003248039</v>
+        <v>0.9682981246298449</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9603131151034902</v>
+        <v>0.9606879855119174</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9130158518161956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8923608351937724</v>
+        <v>0.8923608351937723</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9379147769745596</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8816810227429657</v>
+        <v>0.8825327103867915</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9114435628330648</v>
+        <v>0.9092557246974989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8645439940933203</v>
+        <v>0.8654389055076852</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9432620039079129</v>
+        <v>0.9463582616526849</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9234225651316625</v>
+        <v>0.9215871230875481</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8799766483278455</v>
+        <v>0.8814351007734453</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9120790248676622</v>
+        <v>0.9138385002175555</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9366872711533013</v>
+        <v>0.9368461769246217</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9140437789119966</v>
+        <v>0.9149397342819149</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8803405481807166</v>
+        <v>0.8812373302686982</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9280479072230309</v>
+        <v>0.9270856734608212</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9498362905451144</v>
+        <v>0.9500208238029398</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9154620836462699</v>
+        <v>0.9172464872811458</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9695476181066404</v>
+        <v>0.9706653618790428</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9527277267666338</v>
+        <v>0.9521285985473366</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.915845912973311</v>
+        <v>0.9159912765578614</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9366572189150414</v>
+        <v>0.9382327625545149</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9584296301465767</v>
+        <v>0.9585051134179253</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9387173390181796</v>
+        <v>0.9385513690822422</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9116627608572901</v>
+        <v>0.9115069282772106</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49809</v>
+        <v>50132</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>53293</v>
+        <v>53039</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>68564</v>
+        <v>69121</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>88144</v>
+        <v>88382</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55743</v>
+        <v>56310</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>54229</v>
+        <v>54437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>69789</v>
+        <v>70145</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>80003</v>
+        <v>79921</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>110581</v>
+        <v>111450</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>112059</v>
+        <v>112409</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>144521</v>
+        <v>142174</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>176011</v>
+        <v>174538</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>66076</v>
+        <v>66044</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>68183</v>
+        <v>68521</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87088</v>
+        <v>86851</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>110076</v>
+        <v>109656</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>68157</v>
+        <v>68900</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>69930</v>
+        <v>69028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>85089</v>
+        <v>84866</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>96088</v>
+        <v>95997</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>131479</v>
+        <v>132385</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>133794</v>
+        <v>134566</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>167715</v>
+        <v>167659</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>201895</v>
+        <v>200940</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>49886</v>
+        <v>49618</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63451</v>
+        <v>63850</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>67940</v>
+        <v>67927</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>68696</v>
+        <v>68060</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78740</v>
+        <v>79466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72633</v>
+        <v>72756</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>76746</v>
+        <v>77114</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>70898</v>
+        <v>71001</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>134336</v>
+        <v>133133</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>142311</v>
+        <v>143437</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>149220</v>
+        <v>149686</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>143484</v>
+        <v>143244</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59678</v>
+        <v>59599</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82212</v>
+        <v>81951</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83101</v>
+        <v>83061</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>85072</v>
+        <v>84072</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93098</v>
+        <v>92668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>87035</v>
+        <v>87192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>88561</v>
+        <v>88696</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>84906</v>
+        <v>85090</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>151097</v>
+        <v>149978</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>165957</v>
+        <v>165755</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>168734</v>
+        <v>169032</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>164666</v>
+        <v>166069</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>98601</v>
+        <v>98416</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>146043</v>
+        <v>146115</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>137155</v>
+        <v>138369</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>88872</v>
+        <v>88746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>48964</v>
+        <v>48065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>80253</v>
+        <v>80746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51570</v>
+        <v>51690</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44764</v>
+        <v>44572</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>151394</v>
+        <v>151451</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>229954</v>
+        <v>230932</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>194054</v>
+        <v>193381</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>137376</v>
+        <v>137365</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111361</v>
+        <v>111368</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>152971</v>
+        <v>152974</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>149963</v>
+        <v>149943</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>96213</v>
+        <v>96184</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58257</v>
+        <v>58074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>89132</v>
+        <v>89117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>59648</v>
+        <v>59665</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51812</v>
+        <v>51713</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>167628</v>
+        <v>167625</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>241252</v>
+        <v>241976</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>208586</v>
+        <v>208190</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>146897</v>
+        <v>146879</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>259916</v>
+        <v>260478</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>282312</v>
+        <v>281977</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>263230</v>
+        <v>263138</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>205770</v>
+        <v>205345</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>196406</v>
+        <v>197345</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>240532</v>
+        <v>240705</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>242599</v>
+        <v>243931</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>197438</v>
+        <v>196853</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>464353</v>
+        <v>464273</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>525976</v>
+        <v>526114</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>513802</v>
+        <v>512965</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>409525</v>
+        <v>410270</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>276717</v>
+        <v>277407</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>292793</v>
+        <v>292785</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>280726</v>
+        <v>280861</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>224191</v>
+        <v>224183</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>213167</v>
+        <v>213463</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>247265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>258849</v>
+        <v>258612</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>209886</v>
+        <v>209679</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>486369</v>
+        <v>486864</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>538330</v>
+        <v>538554</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>536069</v>
+        <v>536072</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>430582</v>
+        <v>430545</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>71682</v>
+        <v>71016</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>103303</v>
+        <v>104317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>150107</v>
+        <v>148959</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>91991</v>
+        <v>92151</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>187277</v>
+        <v>186953</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>267647</v>
+        <v>267735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>241859</v>
+        <v>242490</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>202922</v>
+        <v>202987</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>263198</v>
+        <v>263572</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>375071</v>
+        <v>375036</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>398125</v>
+        <v>397704</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>297069</v>
+        <v>298127</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>79481</v>
+        <v>79485</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>108191</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>160772</v>
+        <v>160757</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>95951</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>197720</v>
+        <v>198207</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>275099</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>256601</v>
+        <v>256240</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>212539</v>
+        <v>212679</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>275953</v>
+        <v>276034</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>382376</v>
+        <v>382372</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>414617</v>
+        <v>414812</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>308135</v>
+        <v>307994</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20300</v>
+        <v>20556</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25675</v>
+        <v>24990</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33287</v>
+        <v>33911</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7791</v>
+        <v>8721</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>366435</v>
+        <v>365316</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>331719</v>
+        <v>332468</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>331164</v>
+        <v>333276</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>175754</v>
+        <v>174829</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>390069</v>
+        <v>391278</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>361634</v>
+        <v>360925</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>372387</v>
+        <v>371630</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>190245</v>
+        <v>188842</v>
       </c>
     </row>
     <row r="27">
@@ -2821,37 +2821,37 @@
         <v>25061</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>35394</v>
+        <v>35362</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41811</v>
+        <v>41857</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>21416</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>383516</v>
+        <v>383454</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>345295</v>
+        <v>345965</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>351712</v>
+        <v>352244</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>188064</v>
+        <v>187893</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>407822</v>
+        <v>407937</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>379378</v>
+        <v>379097</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>392133</v>
+        <v>392706</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>207528</v>
+        <v>207609</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>575637</v>
+        <v>576193</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>698073</v>
+        <v>696397</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>583299</v>
+        <v>583903</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1071044</v>
+        <v>1074560</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1051249</v>
+        <v>1049160</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>794765</v>
+        <v>796082</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1551680</v>
+        <v>1554673</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1780984</v>
+        <v>1781287</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1811854</v>
+        <v>1813630</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1389051</v>
+        <v>1390466</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>605909</v>
+        <v>605281</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>727478</v>
+        <v>727619</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>617653</v>
+        <v>618857</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1100890</v>
+        <v>1102159</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1084611</v>
+        <v>1083929</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>827161</v>
+        <v>827292</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1593494</v>
+        <v>1596174</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1822325</v>
+        <v>1822468</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1860763</v>
+        <v>1860434</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1438473</v>
+        <v>1438227</v>
       </c>
     </row>
     <row r="32">
